--- a/file_weights.xlsx
+++ b/file_weights.xlsx
@@ -209,41 +209,41 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,181 +534,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="7">
         <v>41456</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="7">
         <v>41487</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="7">
         <v>41518</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="7">
         <v>41548</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="7">
         <v>41579</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="7">
         <v>41609</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="7">
         <v>41640</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="7">
         <v>41671</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="7">
         <v>41699</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="7">
         <v>41730</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="12">
         <v>0.75</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>0.25</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="7">
         <v>41760</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="7">
         <v>41791</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="7">
         <v>41821</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="12">
+      <c r="B14" s="13"/>
+      <c r="C14" s="10">
         <v>0.75</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="7">
         <v>41852</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="7">
         <v>41883</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="7">
         <v>41913</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="7">
         <v>41944</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="7">
         <v>41974</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="7">
         <v>42005</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="14">
         <v>0.25</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="7">
         <v>42036</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+      <c r="A22" s="7">
         <v>42064</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="7">
         <v>42095</v>
       </c>
       <c r="B23" s="2"/>
@@ -716,7 +716,7 @@
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="7">
         <v>42125</v>
       </c>
       <c r="B24" s="2"/>
@@ -724,7 +724,7 @@
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="7">
         <v>42156</v>
       </c>
       <c r="B25" s="2"/>
@@ -732,61 +732,61 @@
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="7">
         <v>42186</v>
       </c>
       <c r="B26" s="2"/>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="7">
         <v>42217</v>
       </c>
       <c r="B27" s="2"/>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="7">
         <v>42248</v>
       </c>
       <c r="B28" s="2"/>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="7">
         <v>42278</v>
       </c>
       <c r="B29" s="2"/>
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="A30" s="7">
         <v>42309</v>
       </c>
       <c r="B30" s="2"/>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="A31" s="7">
         <v>42339</v>
       </c>
       <c r="B31" s="2"/>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
+      <c r="A32" s="7">
         <v>42370</v>
       </c>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
+      <c r="A33" s="7">
         <v>42401</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
+      <c r="A34" s="7">
         <v>42430</v>
       </c>
       <c r="D34" s="5"/>
